--- a/MgT WBH Zhdant System.xlsx
+++ b/MgT WBH Zhdant System.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Notes" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="System Survey" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Mainworld Survey" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="202">
   <si>
     <t xml:space="preserve">Zhdant System</t>
   </si>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">F0V</t>
+    <t xml:space="preserve">K0V</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -318,6 +318,9 @@
     <t xml:space="preserve">Period (days)</t>
   </si>
   <si>
+    <t xml:space="preserve">Period (years)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diameter (km)</t>
   </si>
   <si>
@@ -336,7 +339,7 @@
     <t xml:space="preserve">Orb Vel (m/s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub</t>
+    <t xml:space="preserve">Subs</t>
   </si>
   <si>
     <t xml:space="preserve">A I</t>
@@ -384,9 +387,6 @@
     <t xml:space="preserve">Primary:</t>
   </si>
   <si>
-    <t xml:space="preserve">Pliebr (K0V)</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Age (Gy):</t>
   </si>
   <si>
@@ -408,6 +408,12 @@
     <t xml:space="preserve">Axial Tilt:</t>
   </si>
   <si>
+    <t xml:space="preserve">radians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
     <t xml:space="preserve">Size:</t>
   </si>
   <si>
@@ -417,13 +423,16 @@
     <t xml:space="preserve">Esc v (kps)</t>
   </si>
   <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atmosphere:</t>
   </si>
   <si>
     <t xml:space="preserve">Pressure (bar)</t>
   </si>
   <si>
-    <t xml:space="preserve">O2 (bar)</t>
+    <t xml:space="preserve">Oxygen Fraction</t>
   </si>
   <si>
     <t xml:space="preserve">Scale Height</t>
@@ -432,6 +441,9 @@
     <t xml:space="preserve">Gas Esc Val</t>
   </si>
   <si>
+    <t xml:space="preserve">O2 ppo (bar)</t>
+  </si>
+  <si>
     <t xml:space="preserve">thin, standard</t>
   </si>
   <si>
@@ -459,6 +471,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sidereal</t>
   </si>
   <si>
@@ -477,6 +492,12 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">Star Tidal Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon Tidal Effect</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tides:</t>
   </si>
   <si>
@@ -486,18 +507,45 @@
     <t xml:space="preserve">High</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotation fact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmo factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High lumin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean</t>
   </si>
   <si>
     <t xml:space="preserve">Albedo</t>
   </si>
   <si>
+    <t xml:space="preserve">Geo. Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumin mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low lumin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
     <t xml:space="preserve">Greenhouse</t>
   </si>
   <si>
+    <t xml:space="preserve">Variance fact.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seismic Stress</t>
   </si>
   <si>
@@ -531,12 +579,27 @@
     <t xml:space="preserve">Compatibility</t>
   </si>
   <si>
+    <t xml:space="preserve">(Terra = 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social life forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rating:</t>
   </si>
   <si>
+    <t xml:space="preserve">Worthwhile with considerable effort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Habitability:</t>
   </si>
   <si>
+    <t xml:space="preserve">Equivalent to garden world</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subordinates</t>
   </si>
   <si>
@@ -549,13 +612,22 @@
     <t xml:space="preserve">Orbit (km)</t>
   </si>
   <si>
-    <t xml:space="preserve">Period (h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y420000-0</t>
+    <t xml:space="preserve">Orbit (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbit (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albedo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmo (bar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenhouse:</t>
   </si>
 </sst>
 </file>
@@ -694,7 +766,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,15 +827,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,7 +843,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,6 +881,49 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2092680" y="8251920"/>
+          <a:ext cx="6089040" cy="4119840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,8 +1039,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1942,19 +2077,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,13 +2158,14 @@
         <v>0.811</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5200</v>
+        <v>5270</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.908</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.42</v>
+        <f aca="false">ROUND(F2^2*(E2/5772)^4,2)</f>
+        <v>0.57</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>91</v>
@@ -2039,7 +2183,7 @@
         <v>0.72</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>11</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2218,10 @@
         <v>100</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>102</v>
@@ -2087,6 +2231,9 @@
       </c>
       <c r="O10" s="10" t="s">
         <v>104</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2244,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0.2</v>
@@ -2112,32 +2259,36 @@
         <f aca="false">ROUND(SQRT(E11^3/$D$2)*365.25,2)</f>
         <v>47.69</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E11^3/$D$2),3)</f>
+        <v>0.131</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>5600</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="12" t="n">
         <v>0.56</v>
       </c>
-      <c r="K11" s="13" t="n">
-        <f aca="false">J11*(H11/12742)^3</f>
+      <c r="L11" s="13" t="n">
+        <f aca="false">K11*(I11/12742)^3</f>
         <v>0.0475378248065565</v>
       </c>
-      <c r="L11" s="13" t="n">
-        <f aca="false">J11*H11/12742</f>
+      <c r="M11" s="13" t="n">
+        <f aca="false">K11*I11/12742</f>
         <v>0.246115209543243</v>
       </c>
-      <c r="M11" s="12" t="n">
-        <f aca="false">SQRT(K11/(H11/12742))*11186</f>
+      <c r="N11" s="12" t="n">
+        <f aca="false">SQRT(L11/(I11/12742))*11186</f>
         <v>3678.91077318064</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">ROUND(M11/SQRT(2),2)</f>
+      <c r="O11" s="0" t="n">
+        <f aca="false">ROUND(N11/SQRT(2),2)</f>
         <v>2601.38</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2149,7 +2300,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0.8</v>
@@ -2164,32 +2315,36 @@
         <f aca="false">ROUND(SQRT(E12^3/$D$2)*365.25,2)</f>
         <v>73.42</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E12^3/$D$2),3)</f>
+        <v>0.201</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>4100</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="12" t="n">
         <v>0.8</v>
       </c>
-      <c r="K12" s="13" t="n">
-        <f aca="false">J12*(H12/12742)^3</f>
+      <c r="L12" s="13" t="n">
+        <f aca="false">K12*(I12/12742)^3</f>
         <v>0.0266519355826079</v>
       </c>
-      <c r="L12" s="13" t="n">
-        <f aca="false">J12*H12/12742</f>
+      <c r="M12" s="13" t="n">
+        <f aca="false">K12*I12/12742</f>
         <v>0.257416418144718</v>
       </c>
-      <c r="M12" s="12" t="n">
-        <f aca="false">SQRT(K12/(H12/12742))*11186</f>
+      <c r="N12" s="12" t="n">
+        <f aca="false">SQRT(L12/(I12/12742))*11186</f>
         <v>3219.33420891169</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <f aca="false">ROUND(M12/SQRT(2),2)</f>
+      <c r="O12" s="0" t="n">
+        <f aca="false">ROUND(N12/SQRT(2),2)</f>
         <v>2276.41</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2201,7 +2356,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2.1</v>
@@ -2216,32 +2371,36 @@
         <f aca="false">ROUND(SQRT(E13^3/$D$2)*365.25,2)</f>
         <v>274.04</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E13^3/$D$2),3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>9620</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="K13" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="13" t="n">
-        <f aca="false">J13*(H13/12742)^3</f>
+      <c r="L13" s="13" t="n">
+        <f aca="false">K13*(I13/12742)^3</f>
         <v>0.430340691990198</v>
       </c>
-      <c r="L13" s="13" t="n">
-        <f aca="false">J13*H13/12742</f>
+      <c r="M13" s="13" t="n">
+        <f aca="false">K13*I13/12742</f>
         <v>0.75498351907079</v>
       </c>
-      <c r="M13" s="12" t="n">
-        <f aca="false">SQRT(K13/(H13/12742))*11186</f>
+      <c r="N13" s="12" t="n">
+        <f aca="false">SQRT(L13/(I13/12742))*11186</f>
         <v>8445.24564432585</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <f aca="false">ROUND(M13/SQRT(2),2)</f>
+      <c r="O13" s="0" t="n">
+        <f aca="false">ROUND(N13/SQRT(2),2)</f>
         <v>5971.69</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>3</v>
@@ -2262,23 +2421,27 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" s="12" t="n">
         <f aca="false">ROUND(SQRT(E14^3/$D$2)*365.25,2)</f>
         <v>405.58</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E14^3/$D$2),3)</f>
+        <v>1.11</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="12"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="O14" s="0" t="n">
+      <c r="M14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2290,7 +2453,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>4.4</v>
@@ -2305,14 +2468,18 @@
         <f aca="false">ROUND(SQRT(E15^3/$D$2)*365.25,2)</f>
         <v>947</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="H15" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E15^3/$D$2),3)</f>
+        <v>2.593</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="12"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="12"/>
-      <c r="O15" s="0" t="n">
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2324,7 +2491,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -2335,32 +2502,40 @@
       <c r="F16" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="G16" s="0" t="n">
+        <f aca="false">ROUND(H16*365.25,2)</f>
+        <v>3441.39</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <f aca="false">ROUND(SQRT(E16^3/$D$2),3)</f>
+        <v>9.422</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>6300</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="K16" s="13" t="n">
-        <f aca="false">J16*(H16/12742)^3</f>
+      <c r="L16" s="13" t="n">
+        <f aca="false">K16*(I16/12742)^3</f>
         <v>0.0435122305462915</v>
       </c>
-      <c r="L16" s="13" t="n">
-        <f aca="false">J16*H16/12742</f>
+      <c r="M16" s="13" t="n">
+        <f aca="false">K16*I16/12742</f>
         <v>0.177994035473238</v>
       </c>
-      <c r="M16" s="12" t="n">
-        <f aca="false">SQRT(K16/(H16/12742))*11186</f>
+      <c r="N16" s="12" t="n">
+        <f aca="false">SQRT(L16/(I16/12742))*11186</f>
         <v>3318.40213467274</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <f aca="false">ROUND(M16/SQRT(2),2)</f>
+      <c r="O16" s="0" t="n">
+        <f aca="false">ROUND(N16/SQRT(2),2)</f>
         <v>2346.46</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2380,10 +2555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,37 +2573,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>53</v>
+        <v>116</v>
+      </c>
+      <c r="B1" s="15" t="str">
+        <f aca="false">'System Survey'!A13</f>
+        <v>Zhdant</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="15" t="s">
         <v>120</v>
+      </c>
+      <c r="B2" s="15" t="str">
+        <f aca="false">'System Survey'!A2</f>
+        <v>Pliebr</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="15" t="n">
-        <f aca="false">ROUND(10/'System Survey'!D2^2.5,2)</f>
-        <v>16.88</v>
+        <f aca="false">'System Survey'!N2</f>
+        <v>3.41</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>122</v>
@@ -2448,15 +2625,15 @@
       <c r="C4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="17" t="n">
         <f aca="false">'System Survey'!E13</f>
         <v>0.77</v>
       </c>
@@ -2464,178 +2641,205 @@
         <v>127</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>18</v>
+        <f aca="false">ROUND(18*PI()/180,3)</f>
+        <v>0.314</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="18" t="n">
         <f aca="false">'System Survey'!F13</f>
         <v>0.05</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">ROUND(D5*180/PI(),0)</f>
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="17" t="n">
         <f aca="false">'System Survey'!G13</f>
         <v>274.04</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="n">
-        <f aca="false">'System Survey'!H13</f>
+        <f aca="false">'System Survey'!I13</f>
         <v>9620</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f aca="false">'System Survey'!I13</f>
+        <f aca="false">'System Survey'!J13</f>
         <v>rock and metal</v>
       </c>
-      <c r="D10" s="18" t="n">
-        <f aca="false">'System Survey'!J13</f>
+      <c r="D10" s="17" t="n">
+        <f aca="false">'System Survey'!K13</f>
         <v>1</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="18" t="n">
+        <f aca="false">'System Survey'!M13</f>
+        <v>0.75498351907079</v>
+      </c>
+      <c r="F10" s="18" t="n">
         <f aca="false">'System Survey'!L13</f>
-        <v>0.75498351907079</v>
-      </c>
-      <c r="F10" s="19" t="n">
-        <f aca="false">'System Survey'!K13</f>
         <v>0.430340691990198</v>
       </c>
-      <c r="G10" s="18" t="n">
-        <f aca="false">'System Survey'!M13/1000</f>
+      <c r="G10" s="17" t="n">
+        <f aca="false">'System Survey'!N13/1000</f>
         <v>8.44524564432585</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <f aca="false">ROUND(B10/1620,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="15" t="n">
-        <f aca="false">0.43+0.27*5/30</f>
-        <v>0.475</v>
+        <f aca="false">0.43+0.27*7/30</f>
+        <v>0.493</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D14" s="15" t="n">
-        <f aca="false">(5/20+8/100+3/20)*B14</f>
-        <v>0.228</v>
+        <f aca="false">(5/20+5/100+5/20)*B14</f>
+        <v>0.27115</v>
       </c>
       <c r="E14" s="15" t="n">
         <f aca="false">ROUND(8.5/E10,3)</f>
         <v>11.259</v>
       </c>
       <c r="F14" s="15" t="n">
-        <f aca="false">ROUND(1000*F10/(9620/12742*C28),3)</f>
-        <v>2.192</v>
+        <f aca="false">ROUND(1000*F10/(9620/12742*C31),3)</f>
+        <v>2.035</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">B14*D14</f>
+        <v>0.13367695</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="n">
         <v>0.43</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -2645,31 +2849,31 @@
       <c r="A20" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -2686,245 +2890,437 @@
       </c>
       <c r="E23" s="15" t="n">
         <f aca="false">ROUND(SIN(D5),3)</f>
-        <v>-0.751</v>
+        <v>0.309</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="15" t="n">
+        <f aca="false">ROUND(('System Survey'!D2*'System Survey'!I13/1620)/32*'System Survey'!E13^2,3)</f>
+        <v>0.089</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <f aca="false">ROUND((H45*H10)/(3.2*(D45/1000000)^3),3)</f>
+        <v>6.797</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="15" t="n">
+        <f aca="false">ROUND((M30*(1-E31)*(1+E32)/K30^2)^0.25,2)*279</f>
+        <v>323.64</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E30" s="15" t="n">
         <f aca="false">'System Survey'!G2</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="15" t="n">
-        <f aca="false">ROUND(((E27*(1-E28)*(1+E29)/(B5^2))^0.25)*279,2)</f>
-        <v>260.06</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="15" t="n">
-        <f aca="false">0.04+9*0.02+0.04</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <f aca="false">ROUND(0.5*SQRT(B14)+0.1,2)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="11" t="s">
+        <v>0.57</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="15" t="n">
+        <f aca="false">ROUND(SQRT(C23)/50,3)</f>
+        <v>0.104</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>162</v>
       </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">1+B14</f>
+        <v>1.493</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">B5*(1-B6)</f>
+        <v>0.7315</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">'System Survey'!G2*(1+I31)</f>
+        <v>0.9177</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="B31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="15" t="n">
+        <f aca="false">ROUND(((E30*(1-E31)*(1+E32)/(B5^2))^0.25)*279,2)</f>
+        <v>280.08</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <f aca="false">(10-(B19/10))/20</f>
+        <v>0.49785</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">ROUND(G32/I30,3)</f>
+        <v>0.61</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">B5*(1+B6)</f>
+        <v>0.8085</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">'System Survey'!G2*(1-I31)</f>
+        <v>0.2223</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="15" t="n">
+        <f aca="false">ROUND((M31*(1-E31)*(1+E32)/K31^2)^0.25,2)*279</f>
+        <v>214.83</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <f aca="false">ROUND(0.5*SQRT(B14)+0.18,3)</f>
+        <v>0.531</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="23" t="n">
+        <f aca="false">(E23+G30+G31)</f>
+        <v>0.91085</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="15" t="n">
+        <f aca="false">D34+C34+E34</f>
+        <v>13.5767</v>
+      </c>
+      <c r="C34" s="15" t="n">
+        <f aca="false">(((H10)-D2)+1)^2</f>
+        <v>12.8881</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <f aca="false">(B25+C25)/10</f>
+        <v>0.6886</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>125</v>
+      <c r="B38" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <f aca="false">0+(B38+C38)/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="15" t="n">
+        <f aca="false">12-C38/2-2</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="11" t="s">
         <v>125</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>173</v>
+        <v>188</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="G44" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="18" t="n">
-        <f aca="false">D42/B10</f>
+      <c r="I44" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="24" t="n">
+        <f aca="false">D45/B10</f>
         <v>44.7908523908524</v>
       </c>
-      <c r="D42" s="15" t="n">
+      <c r="D45" s="22" t="n">
         <v>430888</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="E45" s="22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G45" s="22" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H45" s="22" t="n">
+        <f aca="false">ROUND(G45*(F45/12742),3)</f>
+        <v>0.29</v>
+      </c>
+      <c r="I45" s="22" t="n">
+        <f aca="false">45.82*24</f>
+        <v>1099.68</v>
+      </c>
+      <c r="J45" s="22" t="n">
+        <f aca="false">ROUND(F45/1620,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">I45/24</f>
+        <v>45.82</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">ROUND(5*4+5+F10/(D45/400000),2)</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="24" t="n">
+        <f aca="false">0.04*10*0.02 + 9*0.01 + 0.04</f>
+        <v>0.138</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="22" t="n">
+        <f aca="false">0.09*(5*5+2-1)/30</f>
+        <v>0.078</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="24" t="n">
+        <f aca="false">0.5*SQRT(F46)</f>
+        <v>0.139642400437689</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2933,5 +3329,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>